--- a/docs/mcode/shr-core-Specimen.xlsx
+++ b/docs/mcode/shr-core-Specimen.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -190,19 +190,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Specimen.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Specimen.meta.extension</t>
+    <t>Specimen.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Specimen.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Specimen.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Specimen.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Specimen.extension</t>
   </si>
   <si>
     <t>extensions
@@ -216,580 +295,429 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>specimentreatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenTreatment-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additives added to the specimen.</t>
+  </si>
+  <si>
+    <t>handlingrisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-HandlingRisk-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Cautions on the handling of this specimen.</t>
+  </si>
+  <si>
+    <t>specialhandling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecialHandling-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Information about the proper handling of the specimen.</t>
+  </si>
+  <si>
+    <t>Specimen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Specimen.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>External Identifier</t>
+  </si>
+  <si>
+    <t>Id for specimen.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>SPM-2</t>
+  </si>
+  <si>
+    <t>Specimen.status</t>
+  </si>
+  <si>
+    <t>available | unavailable | unsatisfactory | entered-in-error</t>
+  </si>
+  <si>
+    <t>The availability of the specimen.</t>
+  </si>
+  <si>
+    <t>Codes providing the status/availability of a specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>SPM-20</t>
+  </si>
+  <si>
+    <t>Specimen.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Kind of material that forms the specimen</t>
+  </si>
+  <si>
+    <t>The kind of material that forms the specimen.</t>
+  </si>
+  <si>
+    <t>The type can change the way that a specimen is handled, and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
+  </si>
+  <si>
+    <t>The type of the specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v2-0487</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>SPM-4 and possibly SPM-5</t>
+  </si>
+  <si>
+    <t>Specimen.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
+</t>
+  </si>
+  <si>
+    <t>Specimen from which this specimen originated</t>
+  </si>
+  <si>
+    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
+  </si>
+  <si>
+    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
+  </si>
+  <si>
+    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
+  </si>
+  <si>
+    <t>Specimen.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance]]}
+</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from the patient(s) or from the environment or a device</t>
+  </si>
+  <si>
+    <t>Where the specimen came from. This may be from the patient(s) or from the environment or a device.</t>
+  </si>
+  <si>
+    <t>Must know the subject context.</t>
+  </si>
+  <si>
+    <t>.scoper  or  .scoper.playsRole</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>Specimen.accessionIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
+  </si>
+  <si>
+    <t>SPM-30 (v2.7+)</t>
+  </si>
+  <si>
+    <t>Specimen.receivedTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The time when specimen was received for processing</t>
+  </si>
+  <si>
+    <t>Time when specimen was received for processing or testing.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>SPM-18</t>
+  </si>
+  <si>
+    <t>Specimen.collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Collection details</t>
+  </si>
+  <si>
+    <t>Details concerning the specimen collection.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>SPM-14</t>
+  </si>
+  <si>
+    <t>Specimen.collection.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Specimen.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Specimen.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Specimen.collection.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Specimen.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t>Who collected the specimen</t>
+  </si>
+  <si>
+    <t>Person who collected the specimen.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM].role</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Specimen.collection.comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Specimen.meta.security</t>
+    <t>Collector comments</t>
+  </si>
+  <si>
+    <t>To communicate any details or issues encountered during the specimen collection procedure.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Specimen.collection.collected[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Collection time</t>
+  </si>
+  <si>
+    <t>Time when specimen was collected from subject - the physiologically relevant time.</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.init</t>
+  </si>
+  <si>
+    <t>SPM-17</t>
+  </si>
+  <si>
+    <t>Specimen.collection.quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The quantity of specimen collected</t>
+  </si>
+  <si>
+    <t>The quantity of specimen collected; for instance the volume of a blood sample, or the physical measurement of an anatomic pathology sample.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=SPEC].player.quantity</t>
+  </si>
+  <si>
+    <t>SPM-12</t>
+  </si>
+  <si>
+    <t>Specimen.collection.method</t>
+  </si>
+  <si>
+    <t>Technique used to perform collection</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The  technique that is used to perform the procedure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
+  </si>
+  <si>
+    <t>.methodCode</t>
+  </si>
+  <si>
+    <t>SPM-7</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical collection site</t>
+  </si>
+  <si>
+    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
+  </si>
+  <si>
+    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [body-site-instance](extension-body-site-instance.html).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>SPM-8 and SPM-9</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.extension</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An anatomical landmark that helps determine a body location.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Specimen.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Specimen.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Specimen.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Specimen.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Specimen.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Specimen.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>specimentreatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecimenTreatment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additives added to the specimen.</t>
-  </si>
-  <si>
-    <t>handlingrisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-HandlingRisk-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Cautions on the handling of this specimen.</t>
-  </si>
-  <si>
-    <t>specialhandling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpecialHandling-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Information about the proper handling of the specimen.</t>
-  </si>
-  <si>
-    <t>Specimen.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Specimen.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>External Identifier</t>
-  </si>
-  <si>
-    <t>Id for specimen.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>SPM-2</t>
-  </si>
-  <si>
-    <t>Specimen.status</t>
-  </si>
-  <si>
-    <t>available | unavailable | unsatisfactory | entered-in-error</t>
-  </si>
-  <si>
-    <t>The availability of the specimen.</t>
-  </si>
-  <si>
-    <t>Codes providing the status/availability of a specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>SPM-20</t>
-  </si>
-  <si>
-    <t>Specimen.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Kind of material that forms the specimen</t>
-  </si>
-  <si>
-    <t>The kind of material that forms the specimen.</t>
-  </si>
-  <si>
-    <t>The type can change the way that a specimen is handled, and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
-  </si>
-  <si>
-    <t>The type of the specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v2-0487</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>SPM-4 and possibly SPM-5</t>
-  </si>
-  <si>
-    <t>Specimen.parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
-</t>
-  </si>
-  <si>
-    <t>Specimen from which this specimen originated</t>
-  </si>
-  <si>
-    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
-  </si>
-  <si>
-    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
-  </si>
-  <si>
-    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
-  </si>
-  <si>
-    <t>Specimen.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance]]}
-</t>
-  </si>
-  <si>
-    <t>Where the specimen came from. This may be from the patient(s) or from the environment or a device</t>
-  </si>
-  <si>
-    <t>Where the specimen came from. This may be from the patient(s) or from the environment or a device.</t>
-  </si>
-  <si>
-    <t>Must know the subject context.</t>
-  </si>
-  <si>
-    <t>.scoper  or  .scoper.playsRole</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>Specimen.accessionIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Identifier assigned by the lab</t>
-  </si>
-  <si>
-    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
-  </si>
-  <si>
-    <t>SPM-30 (v2.7+)</t>
-  </si>
-  <si>
-    <t>Specimen.receivedTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The time when specimen was received for processing</t>
-  </si>
-  <si>
-    <t>Time when specimen was received for processing or testing.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>SPM-18</t>
-  </si>
-  <si>
-    <t>Specimen.collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Collection details</t>
-  </si>
-  <si>
-    <t>Details concerning the specimen collection.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>SPM-14</t>
-  </si>
-  <si>
-    <t>Specimen.collection.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
-</t>
-  </si>
-  <si>
-    <t>Who collected the specimen</t>
-  </si>
-  <si>
-    <t>Person who collected the specimen.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM].role</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>Specimen.collection.comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Collector comments</t>
-  </si>
-  <si>
-    <t>To communicate any details or issues encountered during the specimen collection procedure.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collected[x]</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Collection time</t>
-  </si>
-  <si>
-    <t>Time when specimen was collected from subject - the physiologically relevant time.</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.init</t>
-  </si>
-  <si>
-    <t>SPM-17</t>
-  </si>
-  <si>
-    <t>Specimen.collection.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The quantity of specimen collected</t>
-  </si>
-  <si>
-    <t>The quantity of specimen collected; for instance the volume of a blood sample, or the physical measurement of an anatomic pathology sample.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=SPEC].player.quantity</t>
-  </si>
-  <si>
-    <t>SPM-12</t>
-  </si>
-  <si>
-    <t>Specimen.collection.method</t>
-  </si>
-  <si>
-    <t>Technique used to perform collection</t>
-  </si>
-  <si>
-    <t>A coded value specifying the technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>The  technique that is used to perform the procedure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-collection-method</t>
-  </si>
-  <si>
-    <t>.methodCode</t>
-  </si>
-  <si>
-    <t>SPM-7</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical collection site</t>
-  </si>
-  <si>
-    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
-  </si>
-  <si>
-    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [body-site-instance](extension-body-site-instance.html).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>SPM-8 and SPM-9</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.extension</t>
-  </si>
-  <si>
-    <t>locationqualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1162,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM60"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1194,8 +1122,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1654,21 +1582,23 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1728,7 +1658,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1739,18 +1669,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1797,13 +1727,13 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
@@ -1832,7 +1762,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1843,11 +1773,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1863,19 +1793,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1930,13 +1860,13 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -1947,18 +1877,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -1967,19 +1897,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2040,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2051,11 +1981,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2071,19 +2001,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2121,16 +2051,14 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2144,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2155,9 +2083,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2175,20 +2105,16 @@
         <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>39</v>
@@ -2213,13 +2139,13 @@
         <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2236,11 +2162,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2259,9 +2189,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2279,20 +2211,16 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2317,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>39</v>
@@ -2340,11 +2268,15 @@
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
       </c>
@@ -2363,9 +2295,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2374,29 +2308,25 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2444,11 +2374,15 @@
       <c r="AD12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2467,39 +2401,39 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2525,13 +2459,13 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2560,7 +2494,7 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -2571,18 +2505,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2591,20 +2525,18 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2658,57 +2590,55 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2733,13 +2663,13 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2768,29 +2698,29 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2799,19 +2729,19 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2837,32 +2767,38 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2870,22 +2806,20 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>39</v>
       </c>
@@ -2894,7 +2828,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -2906,13 +2840,17 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2961,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2976,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2987,20 +2925,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3009,17 +2945,21 @@
         <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3066,15 +3006,11 @@
       <c r="AD18" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3082,10 +3018,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3093,11 +3029,9 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3106,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3115,14 +3049,16 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3172,15 +3108,11 @@
       <c r="AD19" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3188,51 +3120,49 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I20" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3292,18 +3222,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3314,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3323,16 +3253,16 @@
         <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3394,18 +3324,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3422,19 +3352,19 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3461,13 +3391,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3496,29 +3426,29 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3527,19 +3457,19 @@
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3565,13 +3495,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3588,15 +3518,11 @@
       <c r="AD23" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3604,50 +3530,50 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3696,15 +3622,11 @@
       <c r="AD24" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3712,7 +3634,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3723,7 +3645,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3731,7 +3653,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>47</v>
@@ -3746,18 +3668,16 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3816,18 +3736,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3838,7 +3758,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3847,16 +3767,16 @@
         <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3918,18 +3838,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3952,13 +3872,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4020,18 +3940,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4054,13 +3974,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4122,18 +4042,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4156,13 +4076,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4189,13 +4109,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4224,29 +4144,29 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4258,16 +4178,16 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4293,13 +4213,11 @@
         <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4328,51 +4246,49 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4432,7 +4348,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4443,18 +4359,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4463,18 +4379,20 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4511,16 +4429,14 @@
         <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
@@ -4534,20 +4450,22 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4556,7 +4474,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4568,13 +4486,11 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4624,11 +4540,15 @@
       <c r="AD33" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4636,20 +4556,22 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4667,16 +4589,14 @@
         <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4726,11 +4646,15 @@
       <c r="AD34" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4738,20 +4662,22 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4760,7 +4686,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4772,11 +4698,9 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K35" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
         <v>221</v>
       </c>
@@ -4828,11 +4752,15 @@
       <c r="AD35" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4840,18 +4768,18 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>223</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4862,7 +4790,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -4871,19 +4799,23 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -4907,13 +4839,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4942,18 +4874,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4973,21 +4905,23 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -5011,11 +4945,13 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5044,18 +4980,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5066,7 +5002,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
@@ -5078,13 +5014,13 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5146,7 +5082,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5157,18 +5093,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5180,17 +5116,15 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5227,14 +5161,16 @@
         <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
@@ -5248,7 +5184,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5259,13 +5195,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5284,13 +5218,17 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5338,15 +5276,11 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5354,7 +5288,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5365,13 +5299,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5384,19 +5316,23 @@
         <v>39</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5444,15 +5380,11 @@
       <c r="AD41" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5460,7 +5392,7 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5471,7 +5403,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5482,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5491,23 +5423,19 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5566,18 +5494,18 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>253</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5597,23 +5525,19 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5637,13 +5561,13 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -5672,18 +5596,18 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5706,13 +5630,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5774,18 +5698,18 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>39</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5796,7 +5720,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5808,13 +5732,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5876,7 +5800,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -5887,18 +5811,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -5910,17 +5834,15 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -5980,7 +5902,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -5991,11 +5913,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6008,22 +5930,22 @@
         <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6084,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6095,38 +6017,40 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>269</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6186,7 +6110,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6197,7 +6121,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6208,7 +6132,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6217,16 +6141,16 @@
         <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6253,13 +6177,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>275</v>
+        <v>39</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6288,18 +6212,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6310,7 +6234,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6322,13 +6246,13 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6390,18 +6314,18 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6412,7 +6336,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -6424,13 +6348,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6457,13 +6381,13 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -6492,18 +6416,18 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>39</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6526,13 +6450,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>58</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>59</v>
+        <v>282</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6594,29 +6518,29 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>39</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6628,17 +6552,15 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6698,51 +6620,49 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -6767,13 +6687,13 @@
         <v>39</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
@@ -6802,629 +6722,17 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" s="2"/>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE56" s="2"/>
-      <c r="AF56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" s="2"/>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" s="2"/>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE58" s="2"/>
-      <c r="AF58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE59" s="2"/>
-      <c r="AF59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" s="2"/>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL60">
+  <autoFilter ref="A1:AL54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7434,7 +6742,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-Specimen.xlsx
+++ b/docs/mcode/shr-core-Specimen.xlsx
@@ -406,6 +406,9 @@
     <t>The type can change the way that a specimen is handled, and drives what kind of analyses can properly be performed on the specimen. It is frequently used in diagnostic work flow decision making systems.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>The type of the specimen.</t>
   </si>
   <si>
@@ -638,9 +641,6 @@
     <t>A coded value specifying the technique that is used to perform the procedure.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>The  technique that is used to perform the procedure</t>
   </si>
   <si>
@@ -691,7 +691,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -708,7 +708,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -728,7 +728,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -2791,13 +2791,13 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -2830,18 +2830,18 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2864,16 +2864,16 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2923,7 +2923,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2938,7 +2938,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2972,17 +2972,17 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -3042,10 +3042,10 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3076,13 +3076,13 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3144,18 +3144,18 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3178,13 +3178,13 @@
         <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3246,18 +3246,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3280,13 +3280,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3348,18 +3348,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3385,10 +3385,10 @@
         <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3450,7 +3450,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3490,7 +3490,7 @@
         <v>88</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>90</v>
@@ -3554,7 +3554,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3565,11 +3565,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3594,7 +3594,7 @@
         <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>90</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3692,13 +3692,13 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3760,18 +3760,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3794,13 +3794,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3862,18 +3862,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3896,13 +3896,13 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3964,18 +3964,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3998,13 +3998,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4066,18 +4066,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4103,10 +4103,10 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4133,7 +4133,7 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>199</v>
@@ -4307,10 +4307,10 @@
         <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4372,7 +4372,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4412,7 +4412,7 @@
         <v>88</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>90</v>
@@ -4474,7 +4474,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4932,7 +4932,7 @@
         <v>48</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>231</v>
@@ -5038,7 +5038,7 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>238</v>
@@ -5143,10 +5143,10 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5208,7 +5208,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5248,7 +5248,7 @@
         <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>90</v>
@@ -5312,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5352,7 +5352,7 @@
         <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>90</v>
@@ -5450,7 +5450,7 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>245</v>
@@ -5585,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>251</v>
@@ -5620,7 +5620,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5756,7 +5756,7 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>260</v>
@@ -5861,10 +5861,10 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5926,7 +5926,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -5966,7 +5966,7 @@
         <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>90</v>
@@ -6030,7 +6030,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6070,7 +6070,7 @@
         <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>90</v>
@@ -6270,7 +6270,7 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>271</v>
@@ -6405,7 +6405,7 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>277</v>
@@ -6440,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -6474,7 +6474,7 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>281</v>
@@ -6576,7 +6576,7 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>286</v>
@@ -6711,7 +6711,7 @@
         <v>39</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>294</v>
